--- a/Code/Results/Cases/Case_4_159/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_159/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.165470399562821</v>
+        <v>0.8860820675387799</v>
       </c>
       <c r="C2">
-        <v>0.10283787999483</v>
+        <v>0.1553318658871028</v>
       </c>
       <c r="D2">
-        <v>0.3187784879700359</v>
+        <v>0.5503119725020014</v>
       </c>
       <c r="E2">
-        <v>0.08666481964952411</v>
+        <v>0.1912720824299754</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5679659780894326</v>
+        <v>1.159882681369169</v>
       </c>
       <c r="H2">
-        <v>0.4579507914080381</v>
+        <v>1.150442336281017</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0285045143255811</v>
+        <v>0.07980958790355608</v>
       </c>
       <c r="K2">
-        <v>0.8999027272085698</v>
+        <v>0.4232394507347692</v>
       </c>
       <c r="L2">
-        <v>0.2518759679601459</v>
+        <v>0.3681403120152424</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.02056942802706</v>
+        <v>2.161137300768083</v>
       </c>
       <c r="O2">
-        <v>2.108731426447861</v>
+        <v>4.701618427858591</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.020719477012733</v>
+        <v>0.8483674220107389</v>
       </c>
       <c r="C3">
-        <v>0.1020350837356929</v>
+        <v>0.1551130559053888</v>
       </c>
       <c r="D3">
-        <v>0.2974535460622718</v>
+        <v>0.5477061812628108</v>
       </c>
       <c r="E3">
-        <v>0.08356031598502511</v>
+        <v>0.1914511427402736</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5576481638387918</v>
+        <v>1.164778054027352</v>
       </c>
       <c r="H3">
-        <v>0.4591591548247962</v>
+        <v>1.156711881146251</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02895368099559548</v>
+        <v>0.08021126709107662</v>
       </c>
       <c r="K3">
-        <v>0.7822323081306308</v>
+        <v>0.3897153628065269</v>
       </c>
       <c r="L3">
-        <v>0.2290622791471293</v>
+        <v>0.3638353556750502</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.065095332501026</v>
+        <v>2.180654437182186</v>
       </c>
       <c r="O3">
-        <v>2.089004397443503</v>
+        <v>4.724838912469522</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9322846154175579</v>
+        <v>0.8255326427194518</v>
       </c>
       <c r="C4">
-        <v>0.1015636103456075</v>
+        <v>0.1549892857467974</v>
       </c>
       <c r="D4">
-        <v>0.284703326187568</v>
+        <v>0.5463355161276269</v>
       </c>
       <c r="E4">
-        <v>0.08175022259635156</v>
+        <v>0.1916290969168699</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5522896806993884</v>
+        <v>1.168329061258895</v>
       </c>
       <c r="H4">
-        <v>0.4604988288080918</v>
+        <v>1.160952141431942</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02925148747872797</v>
+        <v>0.08047493473083733</v>
       </c>
       <c r="K4">
-        <v>0.7101221160850884</v>
+        <v>0.3692265905135486</v>
       </c>
       <c r="L4">
-        <v>0.215263123595669</v>
+        <v>0.3613384786793716</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.093559211958846</v>
+        <v>2.193248588815246</v>
       </c>
       <c r="O4">
-        <v>2.080203542305156</v>
+        <v>4.741060149123712</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8963451910550759</v>
+        <v>0.8163090747943045</v>
       </c>
       <c r="C5">
-        <v>0.1013768077431543</v>
+        <v>0.1549415289620946</v>
       </c>
       <c r="D5">
-        <v>0.2795899053092654</v>
+        <v>0.5458347754806994</v>
       </c>
       <c r="E5">
-        <v>0.08103594066724185</v>
+        <v>0.191718757068303</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5503419089719799</v>
+        <v>1.169913321686124</v>
       </c>
       <c r="H5">
-        <v>0.4611907804149951</v>
+        <v>1.1627784692487</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02937831917616318</v>
+        <v>0.08058667354629634</v>
       </c>
       <c r="K5">
-        <v>0.6807627003528864</v>
+        <v>0.3609017461770634</v>
       </c>
       <c r="L5">
-        <v>0.2096892196080162</v>
+        <v>0.3603579351156867</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.105435940606272</v>
+        <v>2.198534398690163</v>
       </c>
       <c r="O5">
-        <v>2.077420217789992</v>
+        <v>4.748164712210524</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8903830633027496</v>
+        <v>0.8147824712029887</v>
       </c>
       <c r="C6">
-        <v>0.1013461091960899</v>
+        <v>0.1549337614777997</v>
       </c>
       <c r="D6">
-        <v>0.278745690179818</v>
+        <v>0.5457551244670924</v>
       </c>
       <c r="E6">
-        <v>0.08091872157348057</v>
+        <v>0.1917346816200265</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5500324512666808</v>
+        <v>1.170184676004354</v>
       </c>
       <c r="H6">
-        <v>0.4613143764236725</v>
+        <v>1.163087675888846</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02939970825449123</v>
+        <v>0.08060548717483407</v>
       </c>
       <c r="K6">
-        <v>0.6758889094578535</v>
+        <v>0.3595209084257505</v>
       </c>
       <c r="L6">
-        <v>0.2087665714477609</v>
+        <v>0.3601973527972362</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107424668174035</v>
+        <v>2.199421381786308</v>
       </c>
       <c r="O6">
-        <v>2.077005712488074</v>
+        <v>4.74937428656969</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.931799541449692</v>
+        <v>0.8254079182603959</v>
       </c>
       <c r="C7">
-        <v>0.1015610695761815</v>
+        <v>0.154988630801018</v>
       </c>
       <c r="D7">
-        <v>0.2846340362714983</v>
+        <v>0.5463285286584068</v>
       </c>
       <c r="E7">
-        <v>0.08174049606513378</v>
+        <v>0.1916302366419984</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5522624699648659</v>
+        <v>1.168349871522501</v>
       </c>
       <c r="H7">
-        <v>0.460507574979232</v>
+        <v>1.160976373383441</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02925317589606635</v>
+        <v>0.08047642428957058</v>
       </c>
       <c r="K7">
-        <v>0.709726070860583</v>
+        <v>0.3691142188100685</v>
       </c>
       <c r="L7">
-        <v>0.215187756062079</v>
+        <v>0.3613251049077562</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.09371826913685</v>
+        <v>2.193319253128475</v>
       </c>
       <c r="O7">
-        <v>2.080162791903277</v>
+        <v>4.741153961809687</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.115460403864319</v>
+        <v>0.873011646342718</v>
       </c>
       <c r="C8">
-        <v>0.1025565825856134</v>
+        <v>0.1552542362280676</v>
       </c>
       <c r="D8">
-        <v>0.3113519411065937</v>
+        <v>0.5493659963404127</v>
       </c>
       <c r="E8">
-        <v>0.08557394138054875</v>
+        <v>0.1913197308997852</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5641996771578164</v>
+        <v>1.161457498622852</v>
       </c>
       <c r="H8">
-        <v>0.4582407365830079</v>
+        <v>1.152523058440508</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02865477876169376</v>
+        <v>0.07994455640479536</v>
       </c>
       <c r="K8">
-        <v>0.859295257540424</v>
+        <v>0.4116609271894731</v>
       </c>
       <c r="L8">
-        <v>0.2439646215202202</v>
+        <v>0.3666256658991358</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.035685209023755</v>
+        <v>2.167740129090074</v>
       </c>
       <c r="O8">
-        <v>2.101223954384608</v>
+        <v>4.709217551283473</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.479761544504441</v>
+        <v>0.9688896926551251</v>
       </c>
       <c r="C9">
-        <v>0.1046823766414704</v>
+        <v>0.1558582042605252</v>
       </c>
       <c r="D9">
-        <v>0.3666598886338761</v>
+        <v>0.557135808113614</v>
       </c>
       <c r="E9">
-        <v>0.09389273710571899</v>
+        <v>0.1912488132518604</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5958213069280447</v>
+        <v>1.152264303255862</v>
       </c>
       <c r="H9">
-        <v>0.4587416389172887</v>
+        <v>1.13904072177769</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02765897652297689</v>
+        <v>0.07903634716215002</v>
       </c>
       <c r="K9">
-        <v>1.15415929095991</v>
+        <v>0.4958291053474682</v>
       </c>
       <c r="L9">
-        <v>0.3021995530414472</v>
+        <v>0.3781760311401428</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9310579716893881</v>
+        <v>2.122420427968325</v>
       </c>
       <c r="O9">
-        <v>2.170209572246591</v>
+        <v>4.662153054426085</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.750889572632474</v>
+        <v>1.040840820960426</v>
       </c>
       <c r="C10">
-        <v>0.1063554462227003</v>
+        <v>0.1563515691542037</v>
       </c>
       <c r="D10">
-        <v>0.4093523457437556</v>
+        <v>0.5639428477043396</v>
       </c>
       <c r="E10">
-        <v>0.1005508120383638</v>
+        <v>0.1915226612009953</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.624740861207826</v>
+        <v>1.148141772247811</v>
       </c>
       <c r="H10">
-        <v>0.4624237331318</v>
+        <v>1.13101436627872</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02703996664566333</v>
+        <v>0.07845072503882378</v>
       </c>
       <c r="K10">
-        <v>1.37242827308026</v>
+        <v>0.5580933758871538</v>
       </c>
       <c r="L10">
-        <v>0.3463066992378998</v>
+        <v>0.3873606555901432</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8601436757295609</v>
+        <v>2.092069194832169</v>
       </c>
       <c r="O10">
-        <v>2.239839721611787</v>
+        <v>4.637039601450965</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.875213661311363</v>
+        <v>1.07389488136161</v>
       </c>
       <c r="C11">
-        <v>0.107142068419563</v>
+        <v>0.156586575758098</v>
       </c>
       <c r="D11">
-        <v>0.4292872990732803</v>
+        <v>0.5672766998180805</v>
       </c>
       <c r="E11">
-        <v>0.1037119352767171</v>
+        <v>0.1917176049738067</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6392924726659714</v>
+        <v>1.146837108268386</v>
       </c>
       <c r="H11">
-        <v>0.4648889909483671</v>
+        <v>1.127769462727187</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02678382448940297</v>
+        <v>0.07820192598222953</v>
       </c>
       <c r="K11">
-        <v>1.472241695254354</v>
+        <v>0.5865072547752277</v>
       </c>
       <c r="L11">
-        <v>0.3667119103422181</v>
+        <v>0.3916894405079745</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8292612231605594</v>
+        <v>2.07889986995461</v>
       </c>
       <c r="O11">
-        <v>2.276118434930396</v>
+        <v>4.627665494497421</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.922453431703019</v>
+        <v>1.086457369287643</v>
       </c>
       <c r="C12">
-        <v>0.1074437321921877</v>
+        <v>0.1566770677799383</v>
       </c>
       <c r="D12">
-        <v>0.4369158395810473</v>
+        <v>0.5685731245169734</v>
       </c>
       <c r="E12">
-        <v>0.104929189397506</v>
+        <v>0.1918015062297229</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6450177655121223</v>
+        <v>1.146425060601743</v>
       </c>
       <c r="H12">
-        <v>0.4659424409769599</v>
+        <v>1.126599006081776</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02669058010252989</v>
+        <v>0.07811023505381343</v>
       </c>
       <c r="K12">
-        <v>1.510127560294649</v>
+        <v>0.5972792292953955</v>
       </c>
       <c r="L12">
-        <v>0.374492415958855</v>
+        <v>0.3933501729978985</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8177725707117698</v>
+        <v>2.074004617455412</v>
       </c>
       <c r="O12">
-        <v>2.290561595035513</v>
+        <v>4.624410165023335</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.912272026673264</v>
+        <v>1.083749796489514</v>
       </c>
       <c r="C13">
-        <v>0.107378593127784</v>
+        <v>0.156657512305955</v>
       </c>
       <c r="D13">
-        <v>0.4352692617307525</v>
+        <v>0.5682924080391842</v>
       </c>
       <c r="E13">
-        <v>0.1046661137901239</v>
+        <v>0.1917829888857554</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6437749273903819</v>
+        <v>1.146510156493818</v>
       </c>
       <c r="H13">
-        <v>0.4657101243460602</v>
+        <v>1.126848492922917</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02671049360112754</v>
+        <v>0.07812987020410311</v>
       </c>
       <c r="K13">
-        <v>1.501963989159492</v>
+        <v>0.5949587566972809</v>
       </c>
       <c r="L13">
-        <v>0.3728142906464456</v>
+        <v>0.3929915499905832</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8202375710768055</v>
+        <v>2.075054819947627</v>
       </c>
       <c r="O13">
-        <v>2.287418920214691</v>
+        <v>4.625098168907186</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.879096766396685</v>
+        <v>1.074927495033165</v>
       </c>
       <c r="C14">
-        <v>0.1071668098854843</v>
+        <v>0.156593990641781</v>
       </c>
       <c r="D14">
-        <v>0.4299132743205121</v>
+        <v>0.567382677595333</v>
       </c>
       <c r="E14">
-        <v>0.1038116675619527</v>
+        <v>0.1917243057782407</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6397591043080695</v>
+        <v>1.146801565824745</v>
       </c>
       <c r="H14">
-        <v>0.4649732183434026</v>
+        <v>1.127672000411764</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02677607749573419</v>
+        <v>0.07819433197468229</v>
       </c>
       <c r="K14">
-        <v>1.475356729064572</v>
+        <v>0.58739322955185</v>
       </c>
       <c r="L14">
-        <v>0.3673509182059149</v>
+        <v>0.3918256396140549</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8283118721428835</v>
+        <v>2.078495297080013</v>
       </c>
       <c r="O14">
-        <v>2.277292291717345</v>
+        <v>4.627391777623728</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.858797508256856</v>
+        <v>1.069529498630089</v>
       </c>
       <c r="C15">
-        <v>0.1070375833102943</v>
+        <v>0.156555276551515</v>
       </c>
       <c r="D15">
-        <v>0.4266431198250302</v>
+        <v>0.5668298603503672</v>
       </c>
       <c r="E15">
-        <v>0.1032909620659588</v>
+        <v>0.1916896722829513</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6373277211000925</v>
+        <v>1.146990739374161</v>
       </c>
       <c r="H15">
-        <v>0.4645376511591053</v>
+        <v>1.128184013948697</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02681674084038654</v>
+        <v>0.07823414513280014</v>
       </c>
       <c r="K15">
-        <v>1.459070985563386</v>
+        <v>0.5827607032578328</v>
       </c>
       <c r="L15">
-        <v>0.3640115503955172</v>
+        <v>0.3911142834098058</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8332846662319482</v>
+        <v>2.080614628762706</v>
       </c>
       <c r="O15">
-        <v>2.271182607019057</v>
+        <v>4.628835013343831</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.742786154257857</v>
+        <v>1.038687091380694</v>
       </c>
       <c r="C16">
-        <v>0.1063045620458283</v>
+        <v>0.1563364219363805</v>
       </c>
       <c r="D16">
-        <v>0.4080603708429749</v>
+        <v>0.5637297343289731</v>
       </c>
       <c r="E16">
-        <v>0.1003469869527791</v>
+        <v>0.1915113338621808</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6238191607356214</v>
+        <v>1.148238513406355</v>
       </c>
       <c r="H16">
-        <v>0.4622790517001647</v>
+        <v>1.131234595146381</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02705722593596782</v>
+        <v>0.07846733822747964</v>
       </c>
       <c r="K16">
-        <v>1.365916876488569</v>
+        <v>0.5562382108944064</v>
       </c>
       <c r="L16">
-        <v>0.344980404273997</v>
+        <v>0.3870807781795094</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.862190284001894</v>
+        <v>2.092942671195672</v>
       </c>
       <c r="O16">
-        <v>2.237565089261608</v>
+        <v>4.637693444025189</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.671882798501429</v>
+        <v>1.019848442396921</v>
       </c>
       <c r="C17">
-        <v>0.1058614960023831</v>
+        <v>0.156204855179169</v>
       </c>
       <c r="D17">
-        <v>0.3967960352362638</v>
+        <v>0.5618885739044828</v>
       </c>
       <c r="E17">
-        <v>0.09857566117469929</v>
+        <v>0.1914199246544115</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.6158994399817743</v>
+        <v>1.149150105010492</v>
       </c>
       <c r="H17">
-        <v>0.4611002142384848</v>
+        <v>1.133210018331695</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02721133722430302</v>
+        <v>0.07861489795466348</v>
       </c>
       <c r="K17">
-        <v>1.308912906712067</v>
+        <v>0.5399900143517584</v>
       </c>
       <c r="L17">
-        <v>0.3333957779848475</v>
+        <v>0.3846448338705386</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8802810325436066</v>
+        <v>2.100668829427788</v>
       </c>
       <c r="O17">
-        <v>2.21815080467502</v>
+        <v>4.643652631716321</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.631192709738627</v>
+        <v>1.00904341423589</v>
       </c>
       <c r="C18">
-        <v>0.1056090520640893</v>
+        <v>0.1561301777867072</v>
       </c>
       <c r="D18">
-        <v>0.3903650999186397</v>
+        <v>0.5608519318300011</v>
       </c>
       <c r="E18">
-        <v>0.09756922250307909</v>
+        <v>0.1913739742671474</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.6114747197248107</v>
+        <v>1.149728148903151</v>
       </c>
       <c r="H18">
-        <v>0.4604961617556569</v>
+        <v>1.134384481416475</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02730236749888171</v>
+        <v>0.07870142776454436</v>
       </c>
       <c r="K18">
-        <v>1.27617396929611</v>
+        <v>0.5306529475041941</v>
       </c>
       <c r="L18">
-        <v>0.3267643837776291</v>
+        <v>0.3832579321870639</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8908154452454933</v>
+        <v>2.105172725443855</v>
       </c>
       <c r="O18">
-        <v>2.20741478910665</v>
+        <v>4.647273188406075</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.617430925067765</v>
+        <v>1.005390275044959</v>
       </c>
       <c r="C19">
-        <v>0.1055239870429148</v>
+        <v>0.156105065043576</v>
       </c>
       <c r="D19">
-        <v>0.3881957739173743</v>
+        <v>0.5605047850974074</v>
       </c>
       <c r="E19">
-        <v>0.0972305514526397</v>
+        <v>0.1913595554177441</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6099985805596475</v>
+        <v>1.149933093166666</v>
       </c>
       <c r="H19">
-        <v>0.4603041621352872</v>
+        <v>1.134788707642329</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02733359648768996</v>
+        <v>0.07873101015215234</v>
       </c>
       <c r="K19">
-        <v>1.265097011789749</v>
+        <v>0.5274930501020094</v>
       </c>
       <c r="L19">
-        <v>0.3245244326179915</v>
+        <v>0.3827907926034726</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8944041560271592</v>
+        <v>2.106707974831457</v>
       </c>
       <c r="O19">
-        <v>2.203852437299588</v>
+        <v>4.648532203965203</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.67942096271949</v>
+        <v>1.021850701818352</v>
       </c>
       <c r="C20">
-        <v>0.1059084123670786</v>
+        <v>0.1562187577156138</v>
       </c>
       <c r="D20">
-        <v>0.3979901336917493</v>
+        <v>0.5620822571081447</v>
       </c>
       <c r="E20">
-        <v>0.09876293214413678</v>
+        <v>0.191428969858741</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.616728902366134</v>
+        <v>1.149047505127271</v>
       </c>
       <c r="H20">
-        <v>0.461218002320507</v>
+        <v>1.132995773038616</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02719468386002077</v>
+        <v>0.07859901849385231</v>
       </c>
       <c r="K20">
-        <v>1.314975988203429</v>
+        <v>0.541718790911176</v>
       </c>
       <c r="L20">
-        <v>0.3346256607557336</v>
+        <v>0.3849026768605768</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8783418253726125</v>
+        <v>2.099840155473345</v>
       </c>
       <c r="O20">
-        <v>2.220172622137284</v>
+        <v>4.642998294961529</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.888836618330373</v>
+        <v>1.077517587011926</v>
       </c>
       <c r="C21">
-        <v>0.1072289120092123</v>
+        <v>0.1566126079409216</v>
       </c>
       <c r="D21">
-        <v>0.4314842499318843</v>
+        <v>0.5676489668584566</v>
       </c>
       <c r="E21">
-        <v>0.104062081025571</v>
+        <v>0.1917412691616676</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6409326986790376</v>
+        <v>1.146713746896609</v>
       </c>
       <c r="H21">
-        <v>0.4651863591389827</v>
+        <v>1.127428534452335</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02675671135518876</v>
+        <v>0.07817532955230533</v>
       </c>
       <c r="K21">
-        <v>1.483169405716183</v>
+        <v>0.5896150806194669</v>
       </c>
       <c r="L21">
-        <v>0.3689541538609262</v>
+        <v>0.392167513008161</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8259346019220586</v>
+        <v>2.077482257241399</v>
       </c>
       <c r="O21">
-        <v>2.280247230850165</v>
+        <v>4.626710100992284</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.026649714954374</v>
+        <v>1.114164709390195</v>
       </c>
       <c r="C22">
-        <v>0.1081140695184288</v>
+        <v>0.156878746411202</v>
       </c>
       <c r="D22">
-        <v>0.4538415063793479</v>
+        <v>0.5714850483257123</v>
       </c>
       <c r="E22">
-        <v>0.1076437528108372</v>
+        <v>0.1920041124693626</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6580112073053073</v>
+        <v>1.145666430973662</v>
       </c>
       <c r="H22">
-        <v>0.4684820501337157</v>
+        <v>1.124129892418679</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02649238175964896</v>
+        <v>0.07791313197637528</v>
       </c>
       <c r="K22">
-        <v>1.593617511315244</v>
+        <v>0.620989218879231</v>
       </c>
       <c r="L22">
-        <v>0.3917039294650664</v>
+        <v>0.3970408438955104</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7928873904120581</v>
+        <v>2.063404489994661</v>
       </c>
       <c r="O22">
-        <v>2.323641997847943</v>
+        <v>4.617780885856291</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.953002898397244</v>
+        <v>1.094581423926059</v>
       </c>
       <c r="C23">
-        <v>0.107639578181427</v>
+        <v>0.1567359107251676</v>
       </c>
       <c r="D23">
-        <v>0.4418643161034765</v>
+        <v>0.5694196016774811</v>
       </c>
       <c r="E23">
-        <v>0.1057209081630894</v>
+        <v>0.191858466322703</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.648775876263656</v>
+        <v>1.146181694121879</v>
       </c>
       <c r="H23">
-        <v>0.4666566510016992</v>
+        <v>1.125859378198896</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02663142287754106</v>
+        <v>0.07805172846214603</v>
       </c>
       <c r="K23">
-        <v>1.534616567143644</v>
+        <v>0.604237946697566</v>
       </c>
       <c r="L23">
-        <v>0.3795316350110056</v>
+        <v>0.394428435794282</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.810412415326887</v>
+        <v>2.070869160404667</v>
       </c>
       <c r="O23">
-        <v>2.300088250605882</v>
+        <v>4.622389676531299</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.67601273211659</v>
+        <v>1.020945400647719</v>
       </c>
       <c r="C24">
-        <v>0.1058871943838327</v>
+        <v>0.1562124693805345</v>
       </c>
       <c r="D24">
-        <v>0.3974501417888803</v>
+        <v>0.5619946248126837</v>
       </c>
       <c r="E24">
-        <v>0.0986782298984572</v>
+        <v>0.1914248599547435</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6163535034443726</v>
+        <v>1.149093722454637</v>
       </c>
       <c r="H24">
-        <v>0.4611645213112467</v>
+        <v>1.133092512573072</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02720220528501827</v>
+        <v>0.0786061923154513</v>
       </c>
       <c r="K24">
-        <v>1.312234766035886</v>
+        <v>0.5409371977814033</v>
       </c>
       <c r="L24">
-        <v>0.3340695415060537</v>
+        <v>0.3847860638117311</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8792181247665187</v>
+        <v>2.100214605762706</v>
       </c>
       <c r="O24">
-        <v>2.219257236312188</v>
+        <v>4.643293514598668</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.38067031131979</v>
+        <v>0.9426847999073971</v>
       </c>
       <c r="C25">
-        <v>0.1040881771361271</v>
+        <v>0.1556860247015024</v>
       </c>
       <c r="D25">
-        <v>0.3513575712896113</v>
+        <v>0.5548404503920352</v>
       </c>
       <c r="E25">
-        <v>0.09155072464860581</v>
+        <v>0.1912106123544959</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5863197397546855</v>
+        <v>1.154288894800402</v>
       </c>
       <c r="H25">
-        <v>0.4580468416519494</v>
+        <v>1.142357524566478</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02790891883202828</v>
+        <v>0.07926766721197076</v>
       </c>
       <c r="K25">
-        <v>1.074156025712199</v>
+        <v>0.4729830218427082</v>
       </c>
       <c r="L25">
-        <v>0.2862302066662323</v>
+        <v>0.374928230783766</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9583440980159967</v>
+        <v>2.134162987540416</v>
       </c>
       <c r="O25">
-        <v>2.148377031934871</v>
+        <v>4.673221496409155</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_159/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_159/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8860820675387799</v>
+        <v>1.165470399562821</v>
       </c>
       <c r="C2">
-        <v>0.1553318658871028</v>
+        <v>0.1028378799948193</v>
       </c>
       <c r="D2">
-        <v>0.5503119725020014</v>
+        <v>0.3187784879700502</v>
       </c>
       <c r="E2">
-        <v>0.1912720824299754</v>
+        <v>0.08666481964952055</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.159882681369169</v>
+        <v>0.5679659780894184</v>
       </c>
       <c r="H2">
-        <v>1.150442336281017</v>
+        <v>0.4579507914081518</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07980958790355608</v>
+        <v>0.02850451432543188</v>
       </c>
       <c r="K2">
-        <v>0.4232394507347692</v>
+        <v>0.8999027272086551</v>
       </c>
       <c r="L2">
-        <v>0.3681403120152424</v>
+        <v>0.2518759679601601</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.161137300768083</v>
+        <v>1.020569428027106</v>
       </c>
       <c r="O2">
-        <v>4.701618427858591</v>
+        <v>2.108731426447861</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8483674220107389</v>
+        <v>1.02071947701279</v>
       </c>
       <c r="C3">
-        <v>0.1551130559053888</v>
+        <v>0.102035083735533</v>
       </c>
       <c r="D3">
-        <v>0.5477061812628108</v>
+        <v>0.2974535460623997</v>
       </c>
       <c r="E3">
-        <v>0.1914511427402736</v>
+        <v>0.08356031598505709</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.164778054027352</v>
+        <v>0.5576481638387918</v>
       </c>
       <c r="H3">
-        <v>1.156711881146251</v>
+        <v>0.4591591548247962</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08021126709107662</v>
+        <v>0.02895368099563012</v>
       </c>
       <c r="K3">
-        <v>0.3897153628065269</v>
+        <v>0.782232308130574</v>
       </c>
       <c r="L3">
-        <v>0.3638353556750502</v>
+        <v>0.2290622791470298</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.180654437182186</v>
+        <v>1.065095332501057</v>
       </c>
       <c r="O3">
-        <v>4.724838912469522</v>
+        <v>2.089004397443532</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8255326427194518</v>
+        <v>0.9322846154176432</v>
       </c>
       <c r="C4">
-        <v>0.1549892857467974</v>
+        <v>0.1015636103457673</v>
       </c>
       <c r="D4">
-        <v>0.5463355161276269</v>
+        <v>0.2847033261876533</v>
       </c>
       <c r="E4">
-        <v>0.1916290969168699</v>
+        <v>0.08175022259634446</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.168329061258895</v>
+        <v>0.5522896806993813</v>
       </c>
       <c r="H4">
-        <v>1.160952141431942</v>
+        <v>0.4604988288082055</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08047493473083733</v>
+        <v>0.02925148747876971</v>
       </c>
       <c r="K4">
-        <v>0.3692265905135486</v>
+        <v>0.7101221160850741</v>
       </c>
       <c r="L4">
-        <v>0.3613384786793716</v>
+        <v>0.2152631235955624</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.193248588815246</v>
+        <v>1.093559211958872</v>
       </c>
       <c r="O4">
-        <v>4.741060149123712</v>
+        <v>2.080203542305128</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8163090747943045</v>
+        <v>0.8963451910551896</v>
       </c>
       <c r="C5">
-        <v>0.1549415289620946</v>
+        <v>0.1013768077431472</v>
       </c>
       <c r="D5">
-        <v>0.5458347754806994</v>
+        <v>0.2795899053091659</v>
       </c>
       <c r="E5">
-        <v>0.191718757068303</v>
+        <v>0.08103594066726316</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.169913321686124</v>
+        <v>0.5503419089719799</v>
       </c>
       <c r="H5">
-        <v>1.1627784692487</v>
+        <v>0.4611907804148743</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08058667354629634</v>
+        <v>0.02937831917617295</v>
       </c>
       <c r="K5">
-        <v>0.3609017461770634</v>
+        <v>0.6807627003527443</v>
       </c>
       <c r="L5">
-        <v>0.3603579351156867</v>
+        <v>0.2096892196079949</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.198534398690163</v>
+        <v>1.105435940606259</v>
       </c>
       <c r="O5">
-        <v>4.748164712210524</v>
+        <v>2.077420217789964</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8147824712029887</v>
+        <v>0.8903830633026359</v>
       </c>
       <c r="C6">
-        <v>0.1549337614777997</v>
+        <v>0.1013461091960046</v>
       </c>
       <c r="D6">
-        <v>0.5457551244670924</v>
+        <v>0.2787456901795196</v>
       </c>
       <c r="E6">
-        <v>0.1917346816200265</v>
+        <v>0.0809187215734628</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.170184676004354</v>
+        <v>0.5500324512667021</v>
       </c>
       <c r="H6">
-        <v>1.163087675888846</v>
+        <v>0.4613143764236725</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08060548717483407</v>
+        <v>0.02939970825449034</v>
       </c>
       <c r="K6">
-        <v>0.3595209084257505</v>
+        <v>0.675888909457754</v>
       </c>
       <c r="L6">
-        <v>0.3601973527972362</v>
+        <v>0.2087665714478248</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.199421381786308</v>
+        <v>1.107424668173995</v>
       </c>
       <c r="O6">
-        <v>4.74937428656969</v>
+        <v>2.07700571248796</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8254079182603959</v>
+        <v>0.9317995414496352</v>
       </c>
       <c r="C7">
-        <v>0.154988630801018</v>
+        <v>0.1015610695767428</v>
       </c>
       <c r="D7">
-        <v>0.5463285286584068</v>
+        <v>0.2846340362713846</v>
       </c>
       <c r="E7">
-        <v>0.1916302366419984</v>
+        <v>0.08174049606512312</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.168349871522501</v>
+        <v>0.5522624699647807</v>
       </c>
       <c r="H7">
-        <v>1.160976373383441</v>
+        <v>0.4605075749791183</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08047642428957058</v>
+        <v>0.02925317589594645</v>
       </c>
       <c r="K7">
-        <v>0.3691142188100685</v>
+        <v>0.7097260708606399</v>
       </c>
       <c r="L7">
-        <v>0.3613251049077562</v>
+        <v>0.2151877560621074</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.193319253128475</v>
+        <v>1.093718269136787</v>
       </c>
       <c r="O7">
-        <v>4.741153961809687</v>
+        <v>2.080162791903177</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.873011646342718</v>
+        <v>1.115460403864205</v>
       </c>
       <c r="C8">
-        <v>0.1552542362280676</v>
+        <v>0.1025565825857093</v>
       </c>
       <c r="D8">
-        <v>0.5493659963404127</v>
+        <v>0.31135194110648</v>
       </c>
       <c r="E8">
-        <v>0.1913197308997852</v>
+        <v>0.08557394138057006</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.161457498622852</v>
+        <v>0.5641996771578164</v>
       </c>
       <c r="H8">
-        <v>1.152523058440508</v>
+        <v>0.4582407365829937</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07994455640479536</v>
+        <v>0.02865477876182609</v>
       </c>
       <c r="K8">
-        <v>0.4116609271894731</v>
+        <v>0.8592952575404524</v>
       </c>
       <c r="L8">
-        <v>0.3666256658991358</v>
+        <v>0.2439646215202345</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.167740129090074</v>
+        <v>1.035685209023762</v>
       </c>
       <c r="O8">
-        <v>4.709217551283473</v>
+        <v>2.101223954384579</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9688896926551251</v>
+        <v>1.479761544504413</v>
       </c>
       <c r="C9">
-        <v>0.1558582042605252</v>
+        <v>0.1046823766412786</v>
       </c>
       <c r="D9">
-        <v>0.557135808113614</v>
+        <v>0.3666598886338761</v>
       </c>
       <c r="E9">
-        <v>0.1912488132518604</v>
+        <v>0.0938927371057332</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.152264303255862</v>
+        <v>0.5958213069280589</v>
       </c>
       <c r="H9">
-        <v>1.13904072177769</v>
+        <v>0.4587416389172745</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07903634716215002</v>
+        <v>0.02765897652303373</v>
       </c>
       <c r="K9">
-        <v>0.4958291053474682</v>
+        <v>1.154159290959853</v>
       </c>
       <c r="L9">
-        <v>0.3781760311401428</v>
+        <v>0.3021995530414614</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.122420427968325</v>
+        <v>0.9310579716893626</v>
       </c>
       <c r="O9">
-        <v>4.662153054426085</v>
+        <v>2.170209572246563</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.040840820960426</v>
+        <v>1.750889572632502</v>
       </c>
       <c r="C10">
-        <v>0.1563515691542037</v>
+        <v>0.1063554462224658</v>
       </c>
       <c r="D10">
-        <v>0.5639428477043396</v>
+        <v>0.4093523457437414</v>
       </c>
       <c r="E10">
-        <v>0.1915226612009953</v>
+        <v>0.1005508120383709</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.148141772247811</v>
+        <v>0.6247408612078402</v>
       </c>
       <c r="H10">
-        <v>1.13101436627872</v>
+        <v>0.4624237331319137</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07845072503882378</v>
+        <v>0.02703996664567399</v>
       </c>
       <c r="K10">
-        <v>0.5580933758871538</v>
+        <v>1.372428273080374</v>
       </c>
       <c r="L10">
-        <v>0.3873606555901432</v>
+        <v>0.3463066992378572</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.092069194832169</v>
+        <v>0.8601436757295744</v>
       </c>
       <c r="O10">
-        <v>4.637039601450965</v>
+        <v>2.239839721611844</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.07389488136161</v>
+        <v>1.875213661311477</v>
       </c>
       <c r="C11">
-        <v>0.156586575758098</v>
+        <v>0.1071420684191011</v>
       </c>
       <c r="D11">
-        <v>0.5672766998180805</v>
+        <v>0.4292872990731382</v>
       </c>
       <c r="E11">
-        <v>0.1917176049738067</v>
+        <v>0.1037119352767206</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.146837108268386</v>
+        <v>0.6392924726659857</v>
       </c>
       <c r="H11">
-        <v>1.127769462727187</v>
+        <v>0.4648889909483387</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07820192598222953</v>
+        <v>0.02678382448947758</v>
       </c>
       <c r="K11">
-        <v>0.5865072547752277</v>
+        <v>1.47224169525424</v>
       </c>
       <c r="L11">
-        <v>0.3916894405079745</v>
+        <v>0.3667119103422749</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.07889986995461</v>
+        <v>0.8292612231606165</v>
       </c>
       <c r="O11">
-        <v>4.627665494497421</v>
+        <v>2.276118434930368</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.086457369287643</v>
+        <v>1.922453431702934</v>
       </c>
       <c r="C12">
-        <v>0.1566770677799383</v>
+        <v>0.107443732191939</v>
       </c>
       <c r="D12">
-        <v>0.5685731245169734</v>
+        <v>0.436915839581161</v>
       </c>
       <c r="E12">
-        <v>0.1918015062297229</v>
+        <v>0.1049291893975308</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.146425060601743</v>
+        <v>0.6450177655121365</v>
       </c>
       <c r="H12">
-        <v>1.126599006081776</v>
+        <v>0.4659424409770594</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07811023505381343</v>
+        <v>0.02669058010258674</v>
       </c>
       <c r="K12">
-        <v>0.5972792292953955</v>
+        <v>1.510127560294762</v>
       </c>
       <c r="L12">
-        <v>0.3933501729978985</v>
+        <v>0.374492415958855</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.074004617455412</v>
+        <v>0.81777257071176</v>
       </c>
       <c r="O12">
-        <v>4.624410165023335</v>
+        <v>2.290561595035484</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.083749796489514</v>
+        <v>1.912272026673236</v>
       </c>
       <c r="C13">
-        <v>0.156657512305955</v>
+        <v>0.1073785931275495</v>
       </c>
       <c r="D13">
-        <v>0.5682924080391842</v>
+        <v>0.4352692617309231</v>
       </c>
       <c r="E13">
-        <v>0.1917829888857554</v>
+        <v>0.1046661137901026</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.146510156493818</v>
+        <v>0.6437749273903677</v>
       </c>
       <c r="H13">
-        <v>1.126848492922917</v>
+        <v>0.4657101243460602</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07812987020410311</v>
+        <v>0.02671049360126254</v>
       </c>
       <c r="K13">
-        <v>0.5949587566972809</v>
+        <v>1.501963989159407</v>
       </c>
       <c r="L13">
-        <v>0.3929915499905832</v>
+        <v>0.3728142906464882</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.075054819947627</v>
+        <v>0.8202375710767931</v>
       </c>
       <c r="O13">
-        <v>4.625098168907186</v>
+        <v>2.287418920214719</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.074927495033165</v>
+        <v>1.879096766396685</v>
       </c>
       <c r="C14">
-        <v>0.156593990641781</v>
+        <v>0.107166809885392</v>
       </c>
       <c r="D14">
-        <v>0.567382677595333</v>
+        <v>0.4299132743205689</v>
       </c>
       <c r="E14">
-        <v>0.1917243057782407</v>
+        <v>0.1038116675619527</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.146801565824745</v>
+        <v>0.6397591043080411</v>
       </c>
       <c r="H14">
-        <v>1.127672000411764</v>
+        <v>0.4649732183435304</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07819433197468229</v>
+        <v>0.02677607749573951</v>
       </c>
       <c r="K14">
-        <v>0.58739322955185</v>
+        <v>1.475356729064714</v>
       </c>
       <c r="L14">
-        <v>0.3918256396140549</v>
+        <v>0.3673509182059576</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.078495297080013</v>
+        <v>0.8283118721428839</v>
       </c>
       <c r="O14">
-        <v>4.627391777623728</v>
+        <v>2.277292291717345</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.069529498630089</v>
+        <v>1.85879750825697</v>
       </c>
       <c r="C15">
-        <v>0.156555276551515</v>
+        <v>0.1070375833106283</v>
       </c>
       <c r="D15">
-        <v>0.5668298603503672</v>
+        <v>0.4266431198249734</v>
       </c>
       <c r="E15">
-        <v>0.1916896722829513</v>
+        <v>0.1032909620659552</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.146990739374161</v>
+        <v>0.6373277211000783</v>
       </c>
       <c r="H15">
-        <v>1.128184013948697</v>
+        <v>0.4645376511591053</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07823414513280014</v>
+        <v>0.02681674084038654</v>
       </c>
       <c r="K15">
-        <v>0.5827607032578328</v>
+        <v>1.459070985563358</v>
       </c>
       <c r="L15">
-        <v>0.3911142834098058</v>
+        <v>0.3640115503954462</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.080614628762706</v>
+        <v>0.8332846662320117</v>
       </c>
       <c r="O15">
-        <v>4.628835013343831</v>
+        <v>2.271182607019085</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.038687091380694</v>
+        <v>1.74278615425763</v>
       </c>
       <c r="C16">
-        <v>0.1563364219363805</v>
+        <v>0.1063045620458283</v>
       </c>
       <c r="D16">
-        <v>0.5637297343289731</v>
+        <v>0.4080603708429891</v>
       </c>
       <c r="E16">
-        <v>0.1915113338621808</v>
+        <v>0.1003469869527756</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.148238513406355</v>
+        <v>0.623819160735593</v>
       </c>
       <c r="H16">
-        <v>1.131234595146381</v>
+        <v>0.4622790517001647</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07846733822747964</v>
+        <v>0.02705722593593585</v>
       </c>
       <c r="K16">
-        <v>0.5562382108944064</v>
+        <v>1.365916876488484</v>
       </c>
       <c r="L16">
-        <v>0.3870807781795094</v>
+        <v>0.3449804042740254</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.092942671195672</v>
+        <v>0.8621902840019531</v>
       </c>
       <c r="O16">
-        <v>4.637693444025189</v>
+        <v>2.237565089261551</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.019848442396921</v>
+        <v>1.671882798501315</v>
       </c>
       <c r="C17">
-        <v>0.156204855179169</v>
+        <v>0.1058614960021558</v>
       </c>
       <c r="D17">
-        <v>0.5618885739044828</v>
+        <v>0.396796035236278</v>
       </c>
       <c r="E17">
-        <v>0.1914199246544115</v>
+        <v>0.09857566117469929</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.149150105010492</v>
+        <v>0.6158994399818312</v>
       </c>
       <c r="H17">
-        <v>1.133210018331695</v>
+        <v>0.4611002142384848</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07861489795466348</v>
+        <v>0.02721133722418934</v>
       </c>
       <c r="K17">
-        <v>0.5399900143517584</v>
+        <v>1.308912906711925</v>
       </c>
       <c r="L17">
-        <v>0.3846448338705386</v>
+        <v>0.3333957779849186</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.100668829427788</v>
+        <v>0.880281032543667</v>
       </c>
       <c r="O17">
-        <v>4.643652631716321</v>
+        <v>2.218150804674877</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.00904341423589</v>
+        <v>1.631192709738599</v>
       </c>
       <c r="C18">
-        <v>0.1561301777867072</v>
+        <v>0.1056090520645583</v>
       </c>
       <c r="D18">
-        <v>0.5608519318300011</v>
+        <v>0.3903650999186965</v>
       </c>
       <c r="E18">
-        <v>0.1913739742671474</v>
+        <v>0.09756922250306488</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.149728148903151</v>
+        <v>0.6114747197247823</v>
       </c>
       <c r="H18">
-        <v>1.134384481416475</v>
+        <v>0.4604961617556427</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07870142776454436</v>
+        <v>0.02730236749893677</v>
       </c>
       <c r="K18">
-        <v>0.5306529475041941</v>
+        <v>1.276173969296053</v>
       </c>
       <c r="L18">
-        <v>0.3832579321870639</v>
+        <v>0.3267643837775296</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.105172725443855</v>
+        <v>0.8908154452454817</v>
       </c>
       <c r="O18">
-        <v>4.647273188406075</v>
+        <v>2.207414789106593</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.005390275044959</v>
+        <v>1.617430925067765</v>
       </c>
       <c r="C19">
-        <v>0.156105065043576</v>
+        <v>0.1055239870430142</v>
       </c>
       <c r="D19">
-        <v>0.5605047850974074</v>
+        <v>0.3881957739175448</v>
       </c>
       <c r="E19">
-        <v>0.1913595554177441</v>
+        <v>0.09723055145265036</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.149933093166666</v>
+        <v>0.6099985805596049</v>
       </c>
       <c r="H19">
-        <v>1.134788707642329</v>
+        <v>0.4603041621351593</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07873101015215234</v>
+        <v>0.02733359648762956</v>
       </c>
       <c r="K19">
-        <v>0.5274930501020094</v>
+        <v>1.265097011789805</v>
       </c>
       <c r="L19">
-        <v>0.3827907926034726</v>
+        <v>0.3245244326180199</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.106707974831457</v>
+        <v>0.8944041560270992</v>
       </c>
       <c r="O19">
-        <v>4.648532203965203</v>
+        <v>2.203852437299588</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.021850701818352</v>
+        <v>1.67942096271949</v>
       </c>
       <c r="C20">
-        <v>0.1562187577156138</v>
+        <v>0.1059084123673131</v>
       </c>
       <c r="D20">
-        <v>0.5620822571081447</v>
+        <v>0.3979901336916782</v>
       </c>
       <c r="E20">
-        <v>0.191428969858741</v>
+        <v>0.09876293214414034</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.149047505127271</v>
+        <v>0.6167289023661482</v>
       </c>
       <c r="H20">
-        <v>1.132995773038616</v>
+        <v>0.4612180023203791</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07859901849385231</v>
+        <v>0.02719468386002433</v>
       </c>
       <c r="K20">
-        <v>0.541718790911176</v>
+        <v>1.314975988203571</v>
       </c>
       <c r="L20">
-        <v>0.3849026768605768</v>
+        <v>0.3346256607557905</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.099840155473345</v>
+        <v>0.8783418253726174</v>
       </c>
       <c r="O20">
-        <v>4.642998294961529</v>
+        <v>2.220172622137284</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.077517587011926</v>
+        <v>1.88883661833043</v>
       </c>
       <c r="C21">
-        <v>0.1566126079409216</v>
+        <v>0.1072289120090915</v>
       </c>
       <c r="D21">
-        <v>0.5676489668584566</v>
+        <v>0.4314842499317706</v>
       </c>
       <c r="E21">
-        <v>0.1917412691616676</v>
+        <v>0.1040620810255746</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.146713746896609</v>
+        <v>0.6409326986790802</v>
       </c>
       <c r="H21">
-        <v>1.127428534452335</v>
+        <v>0.4651863591389827</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07817532955230533</v>
+        <v>0.02675671135519941</v>
       </c>
       <c r="K21">
-        <v>0.5896150806194669</v>
+        <v>1.483169405716154</v>
       </c>
       <c r="L21">
-        <v>0.392167513008161</v>
+        <v>0.3689541538609546</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.077482257241399</v>
+        <v>0.8259346019220715</v>
       </c>
       <c r="O21">
-        <v>4.626710100992284</v>
+        <v>2.280247230850136</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.114164709390195</v>
+        <v>2.026649714954203</v>
       </c>
       <c r="C22">
-        <v>0.156878746411202</v>
+        <v>0.1081140695178533</v>
       </c>
       <c r="D22">
-        <v>0.5714850483257123</v>
+        <v>0.4538415063796606</v>
       </c>
       <c r="E22">
-        <v>0.1920041124693626</v>
+        <v>0.1076437528108301</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.145666430973662</v>
+        <v>0.6580112073053073</v>
       </c>
       <c r="H22">
-        <v>1.124129892418679</v>
+        <v>0.4684820501337157</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07791313197637528</v>
+        <v>0.02649238175964364</v>
       </c>
       <c r="K22">
-        <v>0.620989218879231</v>
+        <v>1.593617511315216</v>
       </c>
       <c r="L22">
-        <v>0.3970408438955104</v>
+        <v>0.3917039294650095</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.063404489994661</v>
+        <v>0.7928873904120455</v>
       </c>
       <c r="O22">
-        <v>4.617780885856291</v>
+        <v>2.323641997847972</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.094581423926059</v>
+        <v>1.953002898397472</v>
       </c>
       <c r="C23">
-        <v>0.1567359107251676</v>
+        <v>0.1076395781814412</v>
       </c>
       <c r="D23">
-        <v>0.5694196016774811</v>
+        <v>0.441864316103306</v>
       </c>
       <c r="E23">
-        <v>0.191858466322703</v>
+        <v>0.1057209081631036</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.146181694121879</v>
+        <v>0.6487758762635707</v>
       </c>
       <c r="H23">
-        <v>1.125859378198896</v>
+        <v>0.4666566510018413</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07805172846214603</v>
+        <v>0.02663142287758902</v>
       </c>
       <c r="K23">
-        <v>0.604237946697566</v>
+        <v>1.534616567143729</v>
       </c>
       <c r="L23">
-        <v>0.394428435794282</v>
+        <v>0.3795316350110056</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.070869160404667</v>
+        <v>0.810412415326937</v>
       </c>
       <c r="O23">
-        <v>4.622389676531299</v>
+        <v>2.300088250605825</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.020945400647719</v>
+        <v>1.67601273211659</v>
       </c>
       <c r="C24">
-        <v>0.1562124693805345</v>
+        <v>0.1058871943835911</v>
       </c>
       <c r="D24">
-        <v>0.5619946248126837</v>
+        <v>0.3974501417889229</v>
       </c>
       <c r="E24">
-        <v>0.1914248599547435</v>
+        <v>0.0986782298984572</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.149093722454637</v>
+        <v>0.6163535034443157</v>
       </c>
       <c r="H24">
-        <v>1.133092512573072</v>
+        <v>0.4611645213111331</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0786061923154513</v>
+        <v>0.02720220528505557</v>
       </c>
       <c r="K24">
-        <v>0.5409371977814033</v>
+        <v>1.312234766035886</v>
       </c>
       <c r="L24">
-        <v>0.3847860638117311</v>
+        <v>0.3340695415061532</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.100214605762706</v>
+        <v>0.8792181247665192</v>
       </c>
       <c r="O24">
-        <v>4.643293514598668</v>
+        <v>2.219257236312188</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9426847999073971</v>
+        <v>1.380670311319903</v>
       </c>
       <c r="C25">
-        <v>0.1556860247015024</v>
+        <v>0.1040881771363615</v>
       </c>
       <c r="D25">
-        <v>0.5548404503920352</v>
+        <v>0.3513575712897961</v>
       </c>
       <c r="E25">
-        <v>0.1912106123544959</v>
+        <v>0.09155072464861291</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.154288894800402</v>
+        <v>0.5863197397547424</v>
       </c>
       <c r="H25">
-        <v>1.142357524566478</v>
+        <v>0.4580468416519494</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07926766721197076</v>
+        <v>0.02790891883202384</v>
       </c>
       <c r="K25">
-        <v>0.4729830218427082</v>
+        <v>1.074156025712199</v>
       </c>
       <c r="L25">
-        <v>0.374928230783766</v>
+        <v>0.2862302066661755</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.134162987540416</v>
+        <v>0.9583440980159967</v>
       </c>
       <c r="O25">
-        <v>4.673221496409155</v>
+        <v>2.148377031934871</v>
       </c>
     </row>
   </sheetData>
